--- a/Schedule Calculator Pro/bin/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788B4576-5F22-4FDF-BD13-4FAD359BEE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B31589-D8A9-48A4-9469-FE05E2E13A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{56FC90AA-9DC2-4657-A8A3-B7B69C54BCDD}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{9BA206A7-7013-4ED7-9B8F-1A27C9FECCC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
   <si>
     <t>А40</t>
   </si>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C50C0A-EEF7-405C-AE0F-8BC419B56B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1564DAC-7254-4F9C-A0CD-E15456B40F9F}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="P3" s="12">
-        <v>122</v>
+        <v>717</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>214</v>
+        <v>413</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="13">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>26</v>
@@ -1089,7 +1089,7 @@
         <v>37</v>
       </c>
       <c r="M4" s="13">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>47</v>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="13">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>26</v>
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="11">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>26</v>
@@ -1382,7 +1382,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="12">
-        <v>717</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1455,7 +1455,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>28</v>
@@ -1546,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>210</v>
+        <v>416</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1554,8 +1554,8 @@
       <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15">
-        <v>416</v>
+      <c r="G9" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>24</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1657,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="11">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>40</v>
@@ -1748,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1842,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>20</v>
@@ -2088,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>20</v>
@@ -2115,7 +2115,7 @@
         <v>42</v>
       </c>
       <c r="M15" s="11">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>56</v>
@@ -2188,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>22</v>
@@ -2215,7 +2215,7 @@
         <v>42</v>
       </c>
       <c r="M16" s="13">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>55</v>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>22</v>
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>22</v>
@@ -2484,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2602,7 +2602,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="16">
-        <v>717</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>

--- a/Schedule Calculator Pro/bin/Розклад 4 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Розклад 4 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B31589-D8A9-48A4-9469-FE05E2E13A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{382B54C8-77CF-4257-945E-983126231B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{9BA206A7-7013-4ED7-9B8F-1A27C9FECCC0}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{D261C8B2-9E9E-4A6C-B2B2-604BD7C1BBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>А40</t>
   </si>
@@ -75,24 +75,21 @@
     <t>Ел41</t>
   </si>
   <si>
+    <t>Обчислювальна техніка і програмування</t>
+  </si>
+  <si>
     <t>Налагодження електроустановок</t>
   </si>
   <si>
     <t>Григор'єв М.Ю.</t>
   </si>
   <si>
-    <t>Надійність електроприводів</t>
-  </si>
-  <si>
     <t>Монтаж, експлуатація і ремонт електроустаткування</t>
   </si>
   <si>
     <t>Білоконь С.Ф.</t>
   </si>
   <si>
-    <t>Обчислювальна техніка і програмування</t>
-  </si>
-  <si>
     <t>Електроустаткування підприємств і цивільних споруд</t>
   </si>
   <si>
@@ -126,13 +123,13 @@
     <t>Шуляр Т.М.</t>
   </si>
   <si>
-    <t>Технічне обслуговування ЕОМ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Надійність, діагностика та експлуатація комп. систем </t>
   </si>
   <si>
     <t>Романішин В.В.</t>
+  </si>
+  <si>
+    <t>Комп'ютерні системи та мережі</t>
   </si>
   <si>
     <t>Лг42</t>
@@ -826,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1564DAC-7254-4F9C-A0CD-E15456B40F9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49BDD0B-683D-49AC-9340-B8FAF829256C}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -853,7 +850,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -884,17 +881,17 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="9"/>
@@ -953,7 +950,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -962,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>310</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>5</v>
@@ -974,16 +971,16 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="J3" s="11">
         <v>105</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>4</v>
@@ -992,13 +989,13 @@
         <v>319</v>
       </c>
       <c r="N3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="P3" s="12">
-        <v>717</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1062,40 +1059,40 @@
         <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G4" s="13">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="J4" s="13">
         <v>105</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="M4" s="13">
         <v>319</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="14">
         <v>717</v>
@@ -1162,40 +1159,40 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="13">
-        <v>314</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="13">
         <v>105</v>
       </c>
       <c r="K5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="M5" s="13">
         <v>319</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="14">
         <v>717</v>
@@ -1274,10 +1271,10 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" s="16">
         <v>717</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -1349,40 +1346,40 @@
         <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="11">
-        <v>409</v>
+        <v>216</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="J7" s="11">
         <v>105</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="11">
         <v>319</v>
       </c>
       <c r="N7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="P7" s="12">
-        <v>306</v>
+        <v>717</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1446,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -1455,31 +1452,31 @@
         <v>18</v>
       </c>
       <c r="G8" s="13">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="13">
         <v>105</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" s="13">
         <v>319</v>
       </c>
       <c r="N8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="P8" s="14">
         <v>717</v>
@@ -1546,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -1554,23 +1551,23 @@
       <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>7</v>
+      <c r="G9" s="15">
+        <v>153</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="J9" s="15">
         <v>105</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="15">
         <v>319</v>
@@ -1639,7 +1636,7 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
@@ -1648,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="11">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -1657,31 +1654,31 @@
         <v>18</v>
       </c>
       <c r="G10" s="11">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="J10" s="11">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="11">
         <v>319</v>
       </c>
       <c r="N10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="P10" s="12">
         <v>717</v>
@@ -1748,37 +1745,37 @@
         <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G11" s="13">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="13">
         <v>319</v>
       </c>
       <c r="N11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="P11" s="14">
-        <v>717</v>
+        <v>405</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -1842,13 +1839,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="G12" s="13">
         <v>117</v>
@@ -1857,7 +1854,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>4</v>
@@ -1866,13 +1863,13 @@
         <v>319</v>
       </c>
       <c r="N12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="P12" s="14">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -1943,10 +1940,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="17"/>
       <c r="O13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="14">
-        <v>717</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2016,10 +2013,10 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P14" s="16">
         <v>717</v>
@@ -2079,7 +2076,7 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>10</v>
@@ -2088,43 +2085,43 @@
         <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="G15" s="11">
         <v>117</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>2</v>
       </c>
       <c r="J15" s="11">
         <v>105</v>
       </c>
       <c r="K15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="M15" s="11">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="P15" s="12">
-        <v>717</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2188,40 +2185,40 @@
         <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>214</v>
+        <v>413</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13">
         <v>117</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="13">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="K16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="M16" s="13">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P16" s="14">
         <v>717</v>
@@ -2288,40 +2285,34 @@
         <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="15">
         <v>117</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="15">
-        <v>105</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="P17" s="16">
         <v>717</v>
@@ -2381,7 +2372,7 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
@@ -2390,38 +2381,38 @@
         <v>12</v>
       </c>
       <c r="D18" s="11">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="11">
         <v>117</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="12">
-        <v>717</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J18" s="11">
+        <v>105</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="11">
+        <v>319</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -2484,34 +2475,28 @@
         <v>12</v>
       </c>
       <c r="D19" s="13">
-        <v>217</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>7</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J19" s="13">
         <v>105</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="13">
-        <v>319</v>
+        <v>6</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -2578,31 +2563,31 @@
         <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="L20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="M20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
       <c r="N20" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P20" s="16">
-        <v>317</v>
+        <v>717</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
